--- a/2023_2_Project_A/Assets/Excel/GameDB.xlsx
+++ b/2023_2_Project_A/Assets/Excel/GameDB.xlsx
@@ -42,39 +42,30 @@
   </si>
   <si>
     <t>2번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10번 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -120,7 +111,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +396,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
